--- a/biology/Zoologie/Campylodoniscus/Campylodoniscus.xlsx
+++ b/biology/Zoologie/Campylodoniscus/Campylodoniscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylodoniscus est un genre de dinosaures sauropodes du Crétacé supérieur, soit entre le Cénomanien et le Campanien-Maastrichtien (de 70 à 95 millions d'années). Ses restes ont été retrouvés en Argentine. Il était probablement de la famille des titanosaures. Il est considéré par certains chercheurs nomen dubium.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type, Campylodon ameghinoi, a été nommée et décrite par Friedrich von Huene en 1929[1]. L'holotype a été découvert à la Sierra de San Bernardo et est constitué d'une mandibule et de sept dents.
-En 1961, Oskar Kuhn affirme que le nom est déjà pris par un poisson. Il renomme le genre Campylodoniscus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type, Campylodon ameghinoi, a été nommée et décrite par Friedrich von Huene en 1929. L'holotype a été découvert à la Sierra de San Bernardo et est constitué d'une mandibule et de sept dents.
+En 1961, Oskar Kuhn affirme que le nom est déjà pris par un poisson. Il renomme le genre Campylodoniscus.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre est tiré du grec ancien καμπυλος, qui signifie « courbe » ou « arqué », et de ὀδών, qui signifie « dent ». Le nom spécifique a été donné en l'honneur de Florentino Ameghino.
 </t>
